--- a/xlsx/四國聯盟_intext.xlsx
+++ b/xlsx/四國聯盟_intext.xlsx
@@ -29,7 +29,7 @@
     <t>印度</t>
   </si>
   <si>
-    <t>政策_政策_美國_四國聯盟</t>
+    <t>体育运动_体育运动_南非_四國聯盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
